--- a/medicine/Handicap/Journée_nationale_des_aidants/Journée_nationale_des_aidants.xlsx
+++ b/medicine/Handicap/Journée_nationale_des_aidants/Journée_nationale_des_aidants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_nationale_des_aidants</t>
+          <t>Journée_nationale_des_aidants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La journée nationale des aidants, consacrée aux « aidants » en France, est célébrée chaque année le 6 octobre. 
 Un aidant est une personne qui prend soin au quotidien d'un proche âgé, malade, ou en situation de handicap. 
-En 2013, cette aide bénévole a été évaluée comme représentant une contribution annuelle de l'ordre de 164 milliards d'euros [1]. 
-La France compterait aujourd'hui 11 millions d'aidants[2], dont une majorité de femmes. 48 % d'entre elles développent une maladie chronique liée au stress et à l'épuisement [source ?], d'où l'intérêt d'apporter des aides à ces aidants et de les reconnaitre à travers une journée qui leur est consacrée. 
-La Journée Nationale des Aidants rassemble les initiatives sur tout le territoire français[3].
+En 2013, cette aide bénévole a été évaluée comme représentant une contribution annuelle de l'ordre de 164 milliards d'euros . 
+La France compterait aujourd'hui 11 millions d'aidants, dont une majorité de femmes. 48 % d'entre elles développent une maladie chronique liée au stress et à l'épuisement [source ?], d'où l'intérêt d'apporter des aides à ces aidants et de les reconnaitre à travers une journée qui leur est consacrée. 
+La Journée Nationale des Aidants rassemble les initiatives sur tout le territoire français.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_nationale_des_aidants</t>
+          <t>Journée_nationale_des_aidants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première « journée nationale des aidants » a lieu en octobre 2010[4].
-En 2013, une vingtaine d'évènements sont organisés dans la France entière[5].
-À Paris, le café Monde et Médias ouvre ses portes pour faire découvrir au public le quotidien des aidants, à travers des témoignages, des échanges, la présentation de dispositifs d'aide innovants[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première « journée nationale des aidants » a lieu en octobre 2010.
+En 2013, une vingtaine d'évènements sont organisés dans la France entière.
+À Paris, le café Monde et Médias ouvre ses portes pour faire découvrir au public le quotidien des aidants, à travers des témoignages, des échanges, la présentation de dispositifs d'aide innovants,.
 </t>
         </is>
       </c>
